--- a/Database/DAFTAR SP2D SATKER.xlsx
+++ b/Database/DAFTAR SP2D SATKER.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="352">
   <si>
     <t>DAFTAR SP2D SATKER</t>
   </si>
@@ -68,39 +68,576 @@
     <t xml:space="preserve">Pilih </t>
   </si>
   <si>
+    <t xml:space="preserve"> 241751301002187</t>
+  </si>
+  <si>
+    <t>12-02-2024</t>
+  </si>
+  <si>
+    <t>15-02-2024</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>NON GAJI KONTRAKTUAL</t>
+  </si>
+  <si>
+    <t>00100T/626402/2024</t>
+  </si>
+  <si>
+    <t>NON GAJI</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:2/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.225/BRSDM.1/I/2024 Tgl.31-1-2024,BAP No:226/PPK/BRSDM.1/I/2024 Tgl.31-1-2024 Pengadaan jasa internet provider sek retariat BRSDM TA 2024 Termin 1</t>
+  </si>
+  <si>
+    <t>Cek Akun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751301002182</t>
+  </si>
+  <si>
+    <t>00101T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:161/PPK/BRSDM.1/I/2024 Tgl.23-1-2024,BAST No:BAST.191//PPK/BRSDM.1/I/2024 Tgl.26-1-2024,BAP No:192/PPK/BRSDM.1/I/2024 Tgl.26-1-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751301002183</t>
+  </si>
+  <si>
+    <t>00102T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:162/PPK/BRSDM.1/I/2024 Tgl.23-1-2024,BAST No:BAST.193/PPK/BRSDM.1/I/2024 Tgl.26-1-2024,BAP No:194/PPK/BRSDM.1/I/2024 Tgl.26-1-2024 Paket Fullboard Meeting Penge lolaan Kepegawaian dan PNBP Lingkup BPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001798</t>
+  </si>
+  <si>
+    <t>00082T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.121/BPPSDM.5/KP.440/I/2024 Tgl.23 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001797</t>
+  </si>
+  <si>
+    <t>00081T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.122/BPPSDM.5/KP.440/I/2024 Tgl.23 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001796</t>
+  </si>
+  <si>
+    <t>00080T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.115/BPPSDM.5/KP.440/I/2024 Tgl.23 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001768</t>
+  </si>
+  <si>
+    <t>00079T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.92/BPPSDM.5/KP.440/I/2024 Tgl.18 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001799</t>
+  </si>
+  <si>
+    <t>00098T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.247/BRSDM/KP.440/I/2024 Tgl.15 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751302001937</t>
+  </si>
+  <si>
+    <t>00099T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:003 Tanggal 02 Februari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751302001917</t>
+  </si>
+  <si>
+    <t>00103T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK NO:171/PPK/BRSDM.1/I/2024 Tgl.24-1-2024,BAST NO:BAST.194/PPK/BRSDM.1/I/2024 Tgl.26-1-2024, BAP No:195/PPK/BRSDM.1/I/2024 Tgl.26-1-2024 Jasa Penyelenggaraan Kegiata n Peningkatan Kapasitas Pegawai BRSDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001743</t>
+  </si>
+  <si>
+    <t>13-02-2024</t>
+  </si>
+  <si>
+    <t>00062T/626402/2024</t>
+  </si>
+  <si>
+    <t>07-02-2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang.Prog Dr FITB-ITB Serdik KKP Sem 2 TA 2023/2024,Sem 1 TA 2024/2025 an.Freshty,dkk,SPK No:531/PPK.PUSDIK/PL.530/I/2024 tgl 19-1-2024,BAST No:85/PPK.PUSDIK/PL.530/I/2024 tgl 31- 1-2024,BAP No:86/PPK.PUSDIK/PL.530/I/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751301002101</t>
+  </si>
+  <si>
+    <t>00084T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:009/PE/KWT/I/2024 Tgl.30-1-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751301002103</t>
+  </si>
+  <si>
+    <t>00090T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:4/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.223/PPK/BRSDM.1/I/2024 Tgl.31-1-2024,BAP No:224/PPK/BRSDM.1/I/2024 Tgl.31-1-2024 Pengadaan jasa satuan pegamanan sekretariat BRSDM TA 2024 Termin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751302001895</t>
+  </si>
+  <si>
+    <t>00089T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:3/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.221/PPK/BRSDM.1/I/2024 Tgl.31-1-2024,BAP No:222/PPK/BRSDM.1/I/2024 Tgl.31-1-2024 Pengadaan Jasa tenaga kebersihan sekretariat BRSDM TA 2024 Termin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001737</t>
+  </si>
+  <si>
+    <t>00092T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 001/KWT-2/AMA/I/2024 Tanggal 31 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001727</t>
+  </si>
+  <si>
+    <t>00091T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No. B.226,B.311/BPPSDM.1/KP.440/I/2024 Tanggal 10 dan 15 Januari 2024 a.n Don Bapkas Nisnoni, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001738</t>
+  </si>
+  <si>
+    <t>00093T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 002/KWT-2/AMA/I/2024 Tanggal 31 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001714</t>
+  </si>
+  <si>
+    <t>GUP</t>
+  </si>
+  <si>
+    <t>00094T/626402/2024</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan untuk keperluan belanja barang (BPP 001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001715</t>
+  </si>
+  <si>
+    <t>GUP KKP</t>
+  </si>
+  <si>
+    <t>00088T/626402/2024</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP 001 Set. BRSDM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001528</t>
+  </si>
+  <si>
+    <t>TUNJANGAN KINERJA SUSULAN</t>
+  </si>
+  <si>
+    <t>00085T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan Pusluh bulan Januari tahun 2024 untuk 33 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001563</t>
+  </si>
+  <si>
+    <t>00086T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan Pegawai Sekretariat BRSDM bulan Januari tahun 2024 untuk 74 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001562</t>
+  </si>
+  <si>
+    <t>00087T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Januari tahun 2024 untuk 40 Pegawai/Anggota Polri/Prajurit TNI (Pusdik KP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001420</t>
+  </si>
+  <si>
+    <t>00078T/626402/2024</t>
+  </si>
+  <si>
+    <t>06-02-2024</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP PuslatluhKP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751302001665</t>
+  </si>
+  <si>
+    <t>00076T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:021/KW-AH/I/2024 Tanggal 30 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001234</t>
+  </si>
+  <si>
+    <t>00083T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No. B.135,B.277,B.332,B.688,B.712/BPPSDM.1/KP.440/I/2024 Tanggal 4,12,16,17, dan 18 Januari 2024 a.n Hari Purwanto, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001168</t>
+  </si>
+  <si>
+    <t>05-02-2024</t>
+  </si>
+  <si>
+    <t>00077T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.271/BPPSDM.1/KP.440/I/2024 Tgl. 12 Januari 2024 Perjadin an.Ollyvia Maria Christy, DKK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751302001395</t>
+  </si>
+  <si>
+    <t>00075T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang-Sesuai SPK No:1210/SPK/PPBJ/BPPSDM.5/XII/2023 Tgl.29-12-2023,BAST No:BAST.1211/PPBJ.PL/BPPSDM.5/I/2024.Tgl.31-1-2024,BAP No:1211/PPBJ.PL/BPPSDM.5/II/2024 Tgl.01-02-2024.Pemba yaran Bulan Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751302001394</t>
+  </si>
+  <si>
+    <t>00074T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang-Sesuai SPK No:1220/SPK/PPBJ/BPPSDM.5/XII/2023 Tgl.29-12-2023,BAST No:BAST.1221/PPBJ.PL/BPPSDM.5/I/2024.Tgl.31-1-2024,BAP No:1221/PPBJ.PL/BPPSDM.5/II/2024 Tgl.01-02-2024.Pemba yaran Bulan Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751301001568</t>
+  </si>
+  <si>
+    <t>00073T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang-Sesuai SPK No:1230/SPK/PPBJ/BPPSDM.5/XII/2023 Tgl.29-12-2023,BAST No:BAST.1231/PPBJ.PL/BPPSDM.5/I/2024.Tgl.31-1-2024,BAP No:1231/PPBJ.PL/BPPSDM.5/II/2024 Tgl.01-02-2024.Pemba yaran Bulan Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001092</t>
+  </si>
+  <si>
+    <t>00066T/626402/2024</t>
+  </si>
+  <si>
+    <t>02-02-2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.235, B.698, B.728/BPPSDM.1/KP.440/I/2024 Tanggal 10, 17 dan 19 Januari 2024 a.n Niken Financia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001087</t>
+  </si>
+  <si>
+    <t>00063T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barangberupa biaya perjadin sesuai STNo.B.309,B.356,B.729/BPPSDM.1/KP.440/I/2024 Tanggal 15,16 dan 19 Januari 2024 a.n Achmad Irfansyah, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001091</t>
+  </si>
+  <si>
+    <t>00065T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.49,B.258/BRSDM.1/KP.440/I/2024 Tgl.9,11 Januari 2024 Perjadin an.Rudi Alek Wahyudin, DKK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001093</t>
+  </si>
+  <si>
+    <t>00067T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.342/BRSDM.1/KP.440/I/2024 Tgl.16 Januari 2024 Perjadin an.Wawan Nurliansyah,DKK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001086</t>
+  </si>
+  <si>
+    <t>00070T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.311/BPPSDM.1/KP.440/I/2024 Tanggal 15 Januari 2024 a.n Rudi Alek Wahyudin, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001095</t>
+  </si>
+  <si>
+    <t>00069T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.263, B.728/BPPSDM.1/KP.440/I/2024 Tanggal 10 dan 19 Januari 2024 a.n Setyawati, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001094</t>
+  </si>
+  <si>
+    <t>00068T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.158, B.297 /BPPSDM.1/KP.440/I/2024 Tanggal 8 dan 15 Januari 2024 a.n Nurkholis Abellian, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303001088</t>
+  </si>
+  <si>
+    <t>00064T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.206,B.261,B.278,B.704/BRSDM.1/KP.440/I/2023 Tgl.9,11,12,17 Januari 2024 Perjadin an.Andriawan Doni Purnama,DKK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751301001456</t>
+  </si>
+  <si>
+    <t>00071T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:042/NNI/I/24 Tgl.29 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751301001452</t>
+  </si>
+  <si>
+    <t>00072T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:011/PO-Sales/Kompas.com/I/2024 tgl.29 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000972</t>
+  </si>
+  <si>
+    <t>01-02-2024</t>
+  </si>
+  <si>
+    <t>00059T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.37,B.45,B.107,B.374,B.700/BPPSDM.1/KP.440/I/2024 Tanggal 9,16,17 Januari 2024 a.n I Nyoman Radiarta, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000973</t>
+  </si>
+  <si>
+    <t>00060T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.89/BPPSDM.1/KP.440/I/2024 Tanggal 3 Januari 2024 a.n Tri Yuwono, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000970</t>
+  </si>
+  <si>
+    <t>00061T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.829/BPPSDM.1/KP.440/I/2024 Tanggal 26 Januari 2024 a.n Rizky Hendriansyah, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000971</t>
+  </si>
+  <si>
+    <t>00058T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.330/BPPSDM.1/KP.440/I/2024 Tanggal 15 Januari 2024 a.n Untung Januar, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000908</t>
+  </si>
+  <si>
+    <t>PENGHASILAN PPNPN SUSULAN</t>
+  </si>
+  <si>
+    <t>00052T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Honor Susulan PPNPN Pusdik KP bulan Januari 2024 sebanyak 7 pegawai an. M. Arif Mustaqim dkk sesuai SK Nomor :KEP.13/KPA/BPPSDM/I/2024 tgl 02 Januari 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000910</t>
+  </si>
+  <si>
+    <t>GAJI SUSULAN PPPK</t>
+  </si>
+  <si>
+    <t>00056T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji susulan pegawai PPPK Sekretariat BRSDM bulan Januari-Februari 2024 untuk 2 pegawai/5 Jiwa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000912</t>
+  </si>
+  <si>
+    <t>00057T/626402/2024</t>
+  </si>
+  <si>
+    <t>31-01-2024</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan untuk keperluan belanja barang (BPP001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000909</t>
+  </si>
+  <si>
+    <t>KEKURANGAN GAJI</t>
+  </si>
+  <si>
+    <t>00051T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran kekurangan gaji pegawai Pusdik bulan Januari 2024 an. Gelora wijayanto untuk 1 pegawai)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000907</t>
+  </si>
+  <si>
+    <t>00055T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Honor Susulan PPNPN Pusdik KP bulan Januari 2024 sebanyak 3 pegawai an. Joko Pitoyo,dkk sesuai SK Nomor KEP.13/KPA/BPPSDM/I/2024 tgl 02 Januari 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000882</t>
+  </si>
+  <si>
+    <t>00045T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Serang (PP) tgl 11-12 Januari 2024 an.Sutrisno dan Adityo Bayu sesuai ST No B.88/BPSDM.4/KP.440/I/2024 Tgl 10/1/2024, keg. Koordinasi pelaksanaan dan lounching SF V-UPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000862</t>
+  </si>
+  <si>
+    <t>00053T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.171/BPPSDM.5/KP.440/I/2024 Tgl.29 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000863</t>
+  </si>
+  <si>
+    <t>00054T/626402/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000860</t>
+  </si>
+  <si>
+    <t>00046T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Serang(PP) tgl 11-12 Jan 2023 an. Luh Dewi, dkk sesuai ST No B.84/BRSDM.4/KP.440/I/2024 Tgl 10/1/2023, keg. Melakukan kunjungan ke SFV UPT Politeknik Ahli Usaha P erikanan Kampus Serang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000861</t>
+  </si>
+  <si>
+    <t>00050T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.65/BPPSDM.5/KP.440/I/2024 Tgl.15 Januari 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751301001171</t>
+  </si>
+  <si>
+    <t>00048T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:123 Tgl.10-1-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751301001178</t>
+  </si>
+  <si>
+    <t>00047T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:009-01/BTA/I/2024 Tgl.16-1-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000840</t>
+  </si>
+  <si>
+    <t>00049T/626402/2024</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan untuk Keperluan Belanja Barang (BPP 002 Pusat Pendidikan KP)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 241751303000730</t>
   </si>
   <si>
     <t>30-01-2024</t>
   </si>
   <si>
-    <t>31-01-2024</t>
-  </si>
-  <si>
-    <t>IDR</t>
-  </si>
-  <si>
-    <t>GUP KKP</t>
-  </si>
-  <si>
     <t>00042T/626402/2024</t>
   </si>
   <si>
-    <t>NON GAJI</t>
-  </si>
-  <si>
-    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP PuslatluhKP)</t>
-  </si>
-  <si>
-    <t>Cek Akun</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 241751303000696</t>
   </si>
   <si>
-    <t>01-02-2024</t>
-  </si>
-  <si>
     <t>00043T/626402/2024</t>
   </si>
   <si>
@@ -116,55 +653,64 @@
     <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.827/BPPSDM.1/TU.350/I/2024 Tgl.26 Januari 2024 (PERDIN LN)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 241751504000141</t>
+  </si>
+  <si>
+    <t>25-01-2024</t>
+  </si>
+  <si>
+    <t>PENGHASILAN PPNPN INDUK</t>
+  </si>
+  <si>
+    <t>00040T/626402/2024</t>
+  </si>
+  <si>
+    <t>GAJI</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang-Honor PPNPN Bulan Januari Tahun 2024 untuk 3 Pegawai.Sesuai dengan SK.No KEP.14/KPA/BPPSDM/I/2024.Tanggal 2 Januari 2024.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 241751504000142</t>
   </si>
   <si>
-    <t>25-01-2024</t>
-  </si>
-  <si>
-    <t>PENGHASILAN PPNPN INDUK</t>
-  </si>
-  <si>
     <t>00039T/626402/2024</t>
   </si>
   <si>
-    <t>GAJI</t>
-  </si>
-  <si>
     <t>Pembayaran Belanja Barang-Honor PPNPN Bulan Januari Tahun 2024 untuk 11 Pegawai.Sesuai dengan SK.No KEP.14/KPA/BPPSDM/I/2024.Tanggal 2 Januari 2024.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 241751504000141</t>
-  </si>
-  <si>
-    <t>00040T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang-Honor PPNPN Bulan Januari Tahun 2024 untuk 3 Pegawai.Sesuai dengan SK.No KEP.14/KPA/BPPSDM/I/2024.Tanggal 2 Januari 2024.</t>
+    <t xml:space="preserve"> 241751303000457</t>
+  </si>
+  <si>
+    <t>29-01-2024</t>
+  </si>
+  <si>
+    <t>00034T/626402/2024</t>
+  </si>
+  <si>
+    <t>24-01-2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai dengan Surat Tugas No.31,33/BPPSDM.5/KP.440/I/2024.Tanggal 09 Januari 2024</t>
   </si>
   <si>
     <t xml:space="preserve"> 241751303000458</t>
   </si>
   <si>
-    <t>29-01-2024</t>
-  </si>
-  <si>
     <t>00036T/626402/2024</t>
   </si>
   <si>
-    <t>24-01-2024</t>
-  </si>
-  <si>
     <t>Pembayaran belanja barang sesuai dengan surat tugas,ST.B 14/BRSDM.5/KP.440/I/2024.Tanggal 4 Januari 2024.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 241751303000457</t>
-  </si>
-  <si>
-    <t>00034T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja barang sesuai dengan Surat Tugas No.31,33/BPPSDM.5/KP.440/I/2024.Tanggal 09 Januari 2024</t>
+    <t xml:space="preserve"> 241751504000129</t>
+  </si>
+  <si>
+    <t>00037T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Januari Tahun 2024 untuk 31 Pegawai.Sesuai SK No:1/KPA/BPPSDM/I/2024 tgl.2-1 2024</t>
   </si>
   <si>
     <t xml:space="preserve"> 241751504000131</t>
@@ -176,13 +722,25 @@
     <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Januari Tahun 2024 untuk 2 Pegawai.Sesuai SK No:1/KPA/BPPSDM/I/2024 tgl.2-1 2024</t>
   </si>
   <si>
-    <t xml:space="preserve"> 241751504000129</t>
-  </si>
-  <si>
-    <t>00037T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Januari Tahun 2024 untuk 31 Pegawai.Sesuai SK No:1/KPA/BPPSDM/I/2024 tgl.2-1 2024</t>
+    <t xml:space="preserve"> 241751303000449</t>
+  </si>
+  <si>
+    <t>00035T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran kekurangan gaji pegawai Sekretariat BRSDM an. Ari Setyawan bulan Desember 2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000451</t>
+  </si>
+  <si>
+    <t>GAJI LAINNYA</t>
+  </si>
+  <si>
+    <t>00032T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Pusdik bulan Desember 2023 untuk 1 pegawai)</t>
   </si>
   <si>
     <t xml:space="preserve"> 241751303000448</t>
@@ -194,30 +752,6 @@
     <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP 001 Set BRSDM)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 241751303000449</t>
-  </si>
-  <si>
-    <t>KEKURANGAN GAJI</t>
-  </si>
-  <si>
-    <t>00035T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja pegawai(pembayaran kekurangan gaji pegawai Sekretariat BRSDM an. Ari Setyawan bulan Desember 2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 241751303000451</t>
-  </si>
-  <si>
-    <t>GAJI LAINNYA</t>
-  </si>
-  <si>
-    <t>00032T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Pusdik bulan Desember 2023 untuk 1 pegawai)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 241751303000450</t>
   </si>
   <si>
@@ -257,6 +791,15 @@
     <t>Pembayaran belanja pegawai(pembayaran gaji induk pegawai Sekretariat BRSDM bulan Februari 2024 untuk 73 pegawai/194 Jiwa )</t>
   </si>
   <si>
+    <t xml:space="preserve"> 241751504000073</t>
+  </si>
+  <si>
+    <t>00013T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji pegawai Pusat Pelatihan bulan Februari 2024 untuk 37 pegawai/105 Jiwa)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 241751504000072</t>
   </si>
   <si>
@@ -266,15 +809,6 @@
     <t>Pembayaran belanja pegawai(pembayaran gaji pegawai Pusat pendidikan bulan Februari 2024 untuk 42 pegawai/115 Jiwa)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 241751504000073</t>
-  </si>
-  <si>
-    <t>00013T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja pegawai(pembayaran gaji pegawai Pusat Pelatihan bulan Februari 2024 untuk 37 pegawai/105 Jiwa)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 241751508000060</t>
   </si>
   <si>
@@ -284,27 +818,27 @@
     <t>Pembayaran belanja pegawai(pembayaran gaji pegawai Sekretariat BRSDM bulan Februari 2024 untuk 2 pegawai/5 Jiwa)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 241751303000212</t>
+  </si>
+  <si>
+    <t>17-01-2024</t>
+  </si>
+  <si>
+    <t>19-01-2024</t>
+  </si>
+  <si>
+    <t>00027T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.348,B.349/BPPSDM.1/KP.440/I/2024 Tgl.16-1-2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 241751303000213</t>
   </si>
   <si>
-    <t>17-01-2024</t>
-  </si>
-  <si>
-    <t>19-01-2024</t>
-  </si>
-  <si>
     <t>00026T/626402/2024</t>
   </si>
   <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.348,B.349/BPPSDM.1/KP.440/I/2024 Tgl.16-1-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 241751303000212</t>
-  </si>
-  <si>
-    <t>00027T/626402/2024</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 241751303000204</t>
   </si>
   <si>
@@ -341,6 +875,24 @@
     <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Pusat Pendidikan bulan Desember 2023 untuk 38 pegawai)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 241751303000140</t>
+  </si>
+  <si>
+    <t>00022T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.270/BRSDM.1/KP.440/I/2024 Tgl.11-1-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241751303000141</t>
+  </si>
+  <si>
+    <t>00023T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.271/BPPSDM.1/KP.440/I/2024 Tgl.12-1-2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 241751303000142</t>
   </si>
   <si>
@@ -350,24 +902,6 @@
     <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.109/BRSDM.1/KP.440/I/2024 Tgl.3-1-2024</t>
   </si>
   <si>
-    <t xml:space="preserve"> 241751303000141</t>
-  </si>
-  <si>
-    <t>00023T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.271/BPPSDM.1/KP.440/I/2024 Tgl.12-1-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 241751303000140</t>
-  </si>
-  <si>
-    <t>00022T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.270/BRSDM.1/KP.440/I/2024 Tgl.11-1-2024</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 241751303000112</t>
   </si>
   <si>
@@ -389,6 +923,15 @@
     <t>Pembayaran kekurangan tunjangan kinerja Pegawai Pusat Pendidikan bulan Desember tahun 2023 untuk 42 Pegawai</t>
   </si>
   <si>
+    <t xml:space="preserve"> 241751301000207</t>
+  </si>
+  <si>
+    <t>00019T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:34314160,34313704,34314361Tgl.30 Desember 2023 Pembayaran Tagihan Air PAM Bulan Januari 2024 untuk Pemakaian Air Bulan Desember 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 241751301000210</t>
   </si>
   <si>
@@ -398,15 +941,6 @@
     <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:c.TEL.01/KU.370/DGS-B30002000/2024 Tgl.10-1-2024 Tagihan Telkom Bulan Januari 2024 Untuk Pemakaian Bulan Desember 2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> 241751301000207</t>
-  </si>
-  <si>
-    <t>00019T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:34314160,34313704,34314361Tgl.30 Desember 2023 Pembayaran Tagihan Air PAM Bulan Januari 2024 untuk Pemakaian Air Bulan Desember 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 241751302000191</t>
   </si>
   <si>
@@ -479,6 +1013,15 @@
     <t>Pembayaran Pengadaan Jasa Tenaga Kebersihan Sekretariat BRSDM TA.2023 sesuai BAST/BAPP Nomor BAST.4842/PPK/BRSDM.1/XII/2023 Tanggal 31-12-2023</t>
   </si>
   <si>
+    <t xml:space="preserve"> 249991302000890</t>
+  </si>
+  <si>
+    <t>00007T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Pengadaan Jasa Satuan Pengamanan Sekretariat BRSDM TA.2023 sesuai BAST/BAPP Nomor BAST.4841/PPK/BRSDM.1/XII/2023 Tanggal 31-12-2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 249991302000898</t>
   </si>
   <si>
@@ -488,15 +1031,6 @@
     <t>Pembayaran Pengadaan Jasa Internet Provider Sekretariat BRSDM TA.2023 sesuai BAST/BAPP Nomor BAST.4843/PPK/BRSDM.1/XII/2023 Tanggal 31-12-2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> 249991302000890</t>
-  </si>
-  <si>
-    <t>00007T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran Pengadaan Jasa Satuan Pengamanan Sekretariat BRSDM TA.2023 sesuai BAST/BAPP Nomor BAST.4841/PPK/BRSDM.1/XII/2023 Tanggal 31-12-2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 241751508000027</t>
   </si>
   <si>
@@ -521,6 +1055,15 @@
     <t>Pembayaran Belanja Pegawai (Pembayaran Gaji Induk PNS Set.BRSDM Bulan Januari 2024 Untuk 75 pegawai 198 jiwa)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 241751504000007</t>
+  </si>
+  <si>
+    <t>00004T/626402/2024</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Gaji Induk Pusdik Bulan Januari 2024 untuk 42 pegawai 114 jiwa)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 241751504000008</t>
   </si>
   <si>
@@ -528,15 +1071,6 @@
   </si>
   <si>
     <t>Pembayaran Belanja Pegawai (Pembayaran Gaji Induk Puslatluh Bulan Januari 2024 Untuk 38 pegawai 109 jiwa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 241751504000007</t>
-  </si>
-  <si>
-    <t>00004T/626402/2024</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Pegawai (Pembayaran Gaji Induk Pusdik Bulan Januari 2024 untuk 42 pegawai 114 jiwa)</t>
   </si>
 </sst>
 </file>
@@ -884,7 +1418,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,7 +1498,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="1">
-        <v>2412514</v>
+        <v>46792793</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -976,7 +1510,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="1">
-        <v>2412514</v>
+        <v>46792793</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
@@ -1009,28 +1543,28 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>329280000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1">
+        <v>329280000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="1">
-        <v>19247944</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1">
-        <v>19247944</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>18</v>
@@ -1039,7 +1573,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>25</v>
@@ -1051,16 +1585,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1">
-        <v>484491206</v>
+        <v>178360000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
@@ -1069,16 +1603,16 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1">
-        <v>484491206</v>
+        <v>178360000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>18</v>
@@ -1087,7 +1621,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1099,43 +1633,43 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8212300</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8212300</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1">
-        <v>55547684</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1">
-        <v>55547684</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>25</v>
@@ -1147,16 +1681,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1">
-        <v>15158880</v>
+        <v>2620300</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -1165,25 +1699,25 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1">
-        <v>15158880</v>
+        <v>2620300</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>25</v>
@@ -1195,16 +1729,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>4266500</v>
+        <v>5081500</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
@@ -1213,25 +1747,25 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I9" s="1">
-        <v>4266500</v>
+        <v>5081500</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>25</v>
@@ -1243,43 +1777,43 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3299700</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3299700</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="1">
-        <v>17281700</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="1">
-        <v>17281700</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>25</v>
@@ -1291,16 +1825,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
-        <v>10105920</v>
+        <v>1140000</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
@@ -1309,25 +1843,25 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1">
-        <v>10105920</v>
+        <v>1140000</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>25</v>
@@ -1339,16 +1873,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
-        <v>156432504</v>
+        <v>20425945</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>20</v>
@@ -1357,25 +1891,25 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1">
-        <v>156432504</v>
+        <v>20425945</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>25</v>
@@ -1387,16 +1921,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
-        <v>17320400</v>
+        <v>173663063</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
@@ -1405,25 +1939,25 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1">
-        <v>17320400</v>
+        <v>173663063</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>25</v>
@@ -1435,16 +1969,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1">
-        <v>124100</v>
+        <v>360000000</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
@@ -1453,25 +1987,25 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1">
-        <v>124100</v>
+        <v>360000000</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>25</v>
@@ -1483,16 +2017,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1">
-        <v>385000</v>
+        <v>4689300</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
@@ -1501,25 +2035,25 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I15" s="1">
-        <v>385000</v>
+        <v>4689300</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>25</v>
@@ -1531,16 +2065,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1">
-        <v>595000</v>
+        <v>146269471</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
@@ -1549,25 +2083,25 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I16" s="1">
-        <v>595000</v>
+        <v>146269471</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>25</v>
@@ -1579,16 +2113,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1">
-        <v>2000000000</v>
+        <v>197758034</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -1597,25 +2131,25 @@
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1">
-        <v>2000000000</v>
+        <v>197758034</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>25</v>
@@ -1627,16 +2161,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1">
-        <v>309069100</v>
+        <v>4263000</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
@@ -1645,25 +2179,25 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I18" s="1">
-        <v>309069100</v>
+        <v>4263000</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>25</v>
@@ -1675,43 +2209,43 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
+        <v>31410000</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="1">
+        <v>31410000</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1">
-        <v>175650600</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="1">
-        <v>175650600</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L19" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>25</v>
@@ -1723,16 +2257,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1">
-        <v>173871500</v>
+        <v>808500</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>20</v>
@@ -1741,25 +2275,25 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I20" s="1">
-        <v>173871500</v>
+        <v>808500</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>25</v>
@@ -1771,16 +2305,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1">
-        <v>9760600</v>
+        <v>99837300</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>20</v>
@@ -1789,25 +2323,25 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I21" s="1">
-        <v>9760600</v>
+        <v>99837300</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>25</v>
@@ -1819,16 +2353,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1">
-        <v>39160000</v>
+        <v>32794226</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -1837,25 +2371,25 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I22" s="1">
-        <v>39160000</v>
+        <v>32794226</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>25</v>
@@ -1867,16 +2401,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1">
-        <v>33460000</v>
+        <v>186011551</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
@@ -1885,25 +2419,25 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>33460000</v>
+        <v>186011551</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>25</v>
@@ -1915,43 +2449,43 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1">
+        <v>388889464</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>388889464</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="1">
-        <v>5618285</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="1">
-        <v>5618285</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>25</v>
@@ -1963,16 +2497,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1">
-        <v>25422346</v>
+        <v>193407252</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
@@ -1981,25 +2515,25 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I25" s="1">
-        <v>25422346</v>
+        <v>193407252</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>25</v>
@@ -2011,16 +2545,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1">
-        <v>13391150</v>
+        <v>15198100</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
@@ -2029,25 +2563,25 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="I26" s="1">
-        <v>13391150</v>
+        <v>15198100</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>25</v>
@@ -2059,16 +2593,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1">
-        <v>20581340</v>
+        <v>12955856</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
@@ -2077,25 +2611,25 @@
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I27" s="1">
-        <v>20581340</v>
+        <v>12955856</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>25</v>
@@ -2107,16 +2641,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1">
-        <v>37452000</v>
+        <v>111717540</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>20</v>
@@ -2125,25 +2659,25 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I28" s="1">
-        <v>37452000</v>
+        <v>111717540</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>25</v>
@@ -2155,16 +2689,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1">
-        <v>37950000</v>
+        <v>1356500</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>20</v>
@@ -2173,16 +2707,16 @@
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="I29" s="1">
-        <v>37950000</v>
+        <v>1356500</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>105</v>
@@ -2191,7 +2725,7 @@
         <v>23</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>25</v>
@@ -2203,16 +2737,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E30" s="1">
-        <v>5074000</v>
+        <v>6558732</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>20</v>
@@ -2221,25 +2755,25 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="I30" s="1">
-        <v>5074000</v>
+        <v>6558732</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>25</v>
@@ -2251,43 +2785,43 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1">
+        <v>25356987</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="1">
+        <v>25356987</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="1">
-        <v>49766932</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="1">
-        <v>49766932</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>25</v>
@@ -2299,16 +2833,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1">
-        <v>4377162</v>
+        <v>25356987</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>20</v>
@@ -2317,25 +2851,25 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="I32" s="1">
-        <v>4377162</v>
+        <v>25356987</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>25</v>
@@ -2347,16 +2881,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E33" s="1">
-        <v>12741699</v>
+        <v>3897000</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>20</v>
@@ -2365,25 +2899,25 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I33" s="1">
-        <v>12741699</v>
+        <v>3897000</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>25</v>
@@ -2395,16 +2929,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E34" s="1">
-        <v>13790000</v>
+        <v>4661500</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>20</v>
@@ -2413,25 +2947,25 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I34" s="1">
-        <v>13790000</v>
+        <v>4661500</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>25</v>
@@ -2443,16 +2977,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E35" s="1">
-        <v>48831081</v>
+        <v>5907000</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
@@ -2461,25 +2995,25 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I35" s="1">
-        <v>48831081</v>
+        <v>5907000</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>25</v>
@@ -2491,16 +3025,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E36" s="1">
-        <v>300000000</v>
+        <v>5410000</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>20</v>
@@ -2509,25 +3043,25 @@
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="I36" s="1">
-        <v>300000000</v>
+        <v>5410000</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>25</v>
@@ -2539,16 +3073,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1">
-        <v>1577997</v>
+        <v>57770000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>20</v>
@@ -2557,25 +3091,25 @@
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I37" s="1">
-        <v>1577997</v>
+        <v>57770000</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>25</v>
@@ -2587,16 +3121,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E38" s="1">
-        <v>177053221</v>
+        <v>29064400</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>20</v>
@@ -2605,25 +3139,25 @@
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I38" s="1">
-        <v>177053221</v>
+        <v>29064400</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>25</v>
@@ -2635,16 +3169,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="E39" s="1">
-        <v>297901642</v>
+        <v>1370000</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>20</v>
@@ -2653,25 +3187,25 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="I39" s="1">
-        <v>297901642</v>
+        <v>1370000</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>25</v>
@@ -2683,16 +3217,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="E40" s="1">
-        <v>41716217</v>
+        <v>1700000</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>20</v>
@@ -2701,25 +3235,25 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="I40" s="1">
-        <v>41716217</v>
+        <v>1700000</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>25</v>
@@ -2731,16 +3265,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="E41" s="1">
-        <v>250131312</v>
+        <v>17657658</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>20</v>
@@ -2749,25 +3283,25 @@
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="I41" s="1">
-        <v>250131312</v>
+        <v>17657658</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>25</v>
@@ -2779,16 +3313,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="E42" s="1">
-        <v>9760600</v>
+        <v>21128800</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>20</v>
@@ -2797,25 +3331,25 @@
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="I42" s="1">
-        <v>9760600</v>
+        <v>21128800</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>25</v>
@@ -2827,16 +3361,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="E43" s="1">
-        <v>316663800</v>
+        <v>12092580</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>20</v>
@@ -2845,25 +3379,25 @@
         <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="I43" s="1">
-        <v>316663800</v>
+        <v>12092580</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>25</v>
@@ -2875,16 +3409,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="E44" s="1">
-        <v>178455000</v>
+        <v>3600000</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>20</v>
@@ -2893,25 +3427,25 @@
         <v>1</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="I44" s="1">
-        <v>178455000</v>
+        <v>3600000</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>25</v>
@@ -2923,51 +3457,2739 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1410000</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1410000</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7440500</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="1">
+        <v>7440500</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="1">
+        <v>35370720</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I47" s="1">
+        <v>35370720</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="1">
+        <v>15248600</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48" s="1">
+        <v>15248600</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="1">
+        <v>88550463</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I49" s="1">
+        <v>88550463</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="1">
+        <v>186500</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="1">
+        <v>186500</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="1">
+        <v>15664770</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="1">
+        <v>15664770</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="1">
+      <c r="K51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3808600</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3808600</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="1">
+        <v>11120000</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" s="1">
+        <v>11120000</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="1">
+        <v>8060000</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="1">
+        <v>8060000</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4090700</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" s="1">
+        <v>4090700</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="1">
+        <v>10892300</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" s="1">
+        <v>10892300</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="1">
+        <v>16262350</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" s="1">
+        <v>16262350</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="1">
+        <v>41104050</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58" s="1">
+        <v>41104050</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="1">
+        <v>99732823</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" s="1">
+        <v>99732823</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2412514</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2412514</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="1">
+        <v>19247944</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I61" s="1">
+        <v>19247944</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="1">
+        <v>484491206</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I62" s="1">
+        <v>484491206</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="1">
+        <v>15158880</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I63" s="1">
+        <v>15158880</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="1">
+        <v>55547684</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I64" s="1">
+        <v>55547684</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" s="1">
+        <v>17281700</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I65" s="1">
+        <v>17281700</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4266500</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I66" s="1">
+        <v>4266500</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="1">
+        <v>156432504</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I67" s="1">
+        <v>156432504</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" s="1">
+        <v>10105920</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I68" s="1">
+        <v>10105920</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E69" s="1">
+        <v>124100</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I69" s="1">
+        <v>124100</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" s="1">
+        <v>385000</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I70" s="1">
+        <v>385000</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="1">
+        <v>17320400</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I71" s="1">
+        <v>17320400</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="1">
+        <v>595000</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I72" s="1">
+        <v>595000</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E74" s="1">
+        <v>309069100</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I74" s="1">
+        <v>309069100</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" s="1">
+        <v>173871500</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I75" s="1">
+        <v>173871500</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="1">
+        <v>175650600</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I76" s="1">
+        <v>175650600</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" s="1">
+        <v>9760600</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I77" s="1">
+        <v>9760600</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E78" s="1">
+        <v>33460000</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I78" s="1">
+        <v>33460000</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E79" s="1">
+        <v>39160000</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I79" s="1">
+        <v>39160000</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5618285</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I80" s="1">
+        <v>5618285</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E81" s="1">
+        <v>25422346</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I81" s="1">
+        <v>25422346</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E82" s="1">
+        <v>13391150</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I82" s="1">
+        <v>13391150</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83" s="1">
+        <v>37950000</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I83" s="1">
+        <v>37950000</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E84" s="1">
+        <v>37452000</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I84" s="1">
+        <v>37452000</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" s="1">
+        <v>20581340</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I85" s="1">
+        <v>20581340</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5074000</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I86" s="1">
+        <v>5074000</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E87" s="1">
+        <v>49766932</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I87" s="1">
+        <v>49766932</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E88" s="1">
+        <v>12741699</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I88" s="1">
+        <v>12741699</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E89" s="1">
+        <v>4377162</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I89" s="1">
+        <v>4377162</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" s="1">
+        <v>13790000</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I90" s="1">
+        <v>13790000</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" s="1">
+        <v>48831081</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I91" s="1">
+        <v>48831081</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E92" s="1">
+        <v>300000000</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I92" s="1">
+        <v>300000000</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1577997</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1577997</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E94" s="1">
+        <v>177053221</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I94" s="1">
+        <v>177053221</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E95" s="1">
+        <v>297901642</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I95" s="1">
+        <v>297901642</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E96" s="1">
+        <v>250131312</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I96" s="1">
+        <v>250131312</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E97" s="1">
+        <v>41716217</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I97" s="1">
+        <v>41716217</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E98" s="1">
+        <v>9760600</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I98" s="1">
+        <v>9760600</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E99" s="1">
+        <v>316663800</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I99" s="1">
+        <v>316663800</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E100" s="1">
         <v>175301200</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I45" s="1">
+      <c r="F100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I100" s="1">
         <v>175301200</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="2"/>
+      <c r="J100" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E101" s="1">
+        <v>178455000</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I101" s="1">
+        <v>178455000</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
